--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Tgm2-Sdc4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Tgm2-Sdc4.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>79.61246300000001</v>
+        <v>45.89896166666667</v>
       </c>
       <c r="H2">
-        <v>238.837389</v>
+        <v>137.696885</v>
       </c>
       <c r="I2">
-        <v>0.6728436998494041</v>
+        <v>0.5698328702801992</v>
       </c>
       <c r="J2">
-        <v>0.6728436998494041</v>
+        <v>0.5698328702801992</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.001642333333333</v>
+        <v>0.5373756666666667</v>
       </c>
       <c r="N2">
-        <v>9.004926999999999</v>
+        <v>1.612127</v>
       </c>
       <c r="O2">
-        <v>0.0516979599165158</v>
+        <v>0.007472820128982582</v>
       </c>
       <c r="P2">
-        <v>0.05169795991651582</v>
+        <v>0.007472820128982581</v>
       </c>
       <c r="Q2">
-        <v>238.9681392017336</v>
+        <v>24.66498512493278</v>
       </c>
       <c r="R2">
-        <v>2150.713252815603</v>
+        <v>221.984866124395</v>
       </c>
       <c r="S2">
-        <v>0.03478464662489468</v>
+        <v>0.004258258543185793</v>
       </c>
       <c r="T2">
-        <v>0.03478464662489469</v>
+        <v>0.004258258543185793</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>79.61246300000001</v>
+        <v>45.89896166666667</v>
       </c>
       <c r="H3">
-        <v>238.837389</v>
+        <v>137.696885</v>
       </c>
       <c r="I3">
-        <v>0.6728436998494041</v>
+        <v>0.5698328702801992</v>
       </c>
       <c r="J3">
-        <v>0.6728436998494041</v>
+        <v>0.5698328702801992</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>33.162845</v>
       </c>
       <c r="O3">
-        <v>0.1903903753498087</v>
+        <v>0.1537223653287423</v>
       </c>
       <c r="P3">
-        <v>0.1903903753498088</v>
+        <v>0.1537223653287423</v>
       </c>
       <c r="Q3">
-        <v>880.0585901790785</v>
+        <v>507.3800504708695</v>
       </c>
       <c r="R3">
-        <v>7920.527311611706</v>
+        <v>4566.420454237826</v>
       </c>
       <c r="S3">
-        <v>0.1281029645660821</v>
+        <v>0.08759605666153863</v>
       </c>
       <c r="T3">
-        <v>0.1281029645660821</v>
+        <v>0.08759605666153862</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>79.61246300000001</v>
+        <v>45.89896166666667</v>
       </c>
       <c r="H4">
-        <v>238.837389</v>
+        <v>137.696885</v>
       </c>
       <c r="I4">
-        <v>0.6728436998494041</v>
+        <v>0.5698328702801992</v>
       </c>
       <c r="J4">
-        <v>0.6728436998494041</v>
+        <v>0.5698328702801992</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>27.51115433333333</v>
+        <v>30.561198</v>
       </c>
       <c r="N4">
-        <v>82.533463</v>
+        <v>91.683594</v>
       </c>
       <c r="O4">
-        <v>0.4738307886277414</v>
+        <v>0.4249882340167162</v>
       </c>
       <c r="P4">
-        <v>0.4738307886277414</v>
+        <v>0.4249882340167161</v>
       </c>
       <c r="Q4">
-        <v>2190.23075644979</v>
+        <v>1402.72725548941</v>
       </c>
       <c r="R4">
-        <v>19712.07680804811</v>
+        <v>12624.54529940469</v>
       </c>
       <c r="S4">
-        <v>0.3188140609228504</v>
+        <v>0.2421722652250584</v>
       </c>
       <c r="T4">
-        <v>0.3188140609228505</v>
+        <v>0.2421722652250584</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>79.61246300000001</v>
+        <v>45.89896166666667</v>
       </c>
       <c r="H5">
-        <v>238.837389</v>
+        <v>137.696885</v>
       </c>
       <c r="I5">
-        <v>0.6728436998494041</v>
+        <v>0.5698328702801992</v>
       </c>
       <c r="J5">
-        <v>0.6728436998494041</v>
+        <v>0.5698328702801992</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>16.49405866666666</v>
+        <v>29.75783666666667</v>
       </c>
       <c r="N5">
-        <v>49.482176</v>
+        <v>89.27351</v>
       </c>
       <c r="O5">
-        <v>0.2840808761059341</v>
+        <v>0.4138165805255589</v>
       </c>
       <c r="P5">
-        <v>0.2840808761059341</v>
+        <v>0.4138165805255589</v>
       </c>
       <c r="Q5">
-        <v>1313.132635319829</v>
+        <v>1365.853804446261</v>
       </c>
       <c r="R5">
-        <v>11818.19371787846</v>
+        <v>12292.68424001635</v>
       </c>
       <c r="S5">
-        <v>0.1911420277355768</v>
+        <v>0.2358062898504164</v>
       </c>
       <c r="T5">
-        <v>0.1911420277355769</v>
+        <v>0.2358062898504164</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>11.445176</v>
       </c>
       <c r="I6">
-        <v>0.03224291890608301</v>
+        <v>0.04736372570041834</v>
       </c>
       <c r="J6">
-        <v>0.03224291890608301</v>
+        <v>0.04736372570041834</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.001642333333333</v>
+        <v>0.5373756666666667</v>
       </c>
       <c r="N6">
-        <v>9.004926999999999</v>
+        <v>1.612127</v>
       </c>
       <c r="O6">
-        <v>0.0516979599165158</v>
+        <v>0.007472820128982582</v>
       </c>
       <c r="P6">
-        <v>0.05169795991651582</v>
+        <v>0.007472820128982581</v>
       </c>
       <c r="Q6">
-        <v>11.45144159801689</v>
+        <v>2.050119694372444</v>
       </c>
       <c r="R6">
-        <v>103.062974382152</v>
+        <v>18.451077249352</v>
       </c>
       <c r="S6">
-        <v>0.001666893129198149</v>
+        <v>0.0003539406027976958</v>
       </c>
       <c r="T6">
-        <v>0.001666893129198149</v>
+        <v>0.0003539406027976958</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>11.445176</v>
       </c>
       <c r="I7">
-        <v>0.03224291890608301</v>
+        <v>0.04736372570041834</v>
       </c>
       <c r="J7">
-        <v>0.03224291890608301</v>
+        <v>0.04736372570041834</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>33.162845</v>
       </c>
       <c r="O7">
-        <v>0.1903903753498087</v>
+        <v>0.1537223653287423</v>
       </c>
       <c r="P7">
-        <v>0.1903903753498088</v>
+        <v>0.1537223653287423</v>
       </c>
       <c r="Q7">
         <v>42.17273307619112</v>
@@ -883,10 +883,10 @@
         <v>379.5545976857201</v>
       </c>
       <c r="S7">
-        <v>0.006138741432902588</v>
+        <v>0.007280863945450051</v>
       </c>
       <c r="T7">
-        <v>0.006138741432902589</v>
+        <v>0.00728086394545005</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>11.445176</v>
       </c>
       <c r="I8">
-        <v>0.03224291890608301</v>
+        <v>0.04736372570041834</v>
       </c>
       <c r="J8">
-        <v>0.03224291890608301</v>
+        <v>0.04736372570041834</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>27.51115433333333</v>
+        <v>30.561198</v>
       </c>
       <c r="N8">
-        <v>82.533463</v>
+        <v>91.683594</v>
       </c>
       <c r="O8">
-        <v>0.4738307886277414</v>
+        <v>0.4249882340167162</v>
       </c>
       <c r="P8">
-        <v>0.4738307886277414</v>
+        <v>0.4249882340167161</v>
       </c>
       <c r="Q8">
-        <v>104.9566677693876</v>
+        <v>116.592763293616</v>
       </c>
       <c r="R8">
-        <v>944.6100099244879</v>
+        <v>1049.334869642544</v>
       </c>
       <c r="S8">
-        <v>0.01527768769292963</v>
+        <v>0.02012902614187295</v>
       </c>
       <c r="T8">
-        <v>0.01527768769292963</v>
+        <v>0.02012902614187295</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>11.445176</v>
       </c>
       <c r="I9">
-        <v>0.03224291890608301</v>
+        <v>0.04736372570041834</v>
       </c>
       <c r="J9">
-        <v>0.03224291890608301</v>
+        <v>0.04736372570041834</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>16.49405866666666</v>
+        <v>29.75783666666667</v>
       </c>
       <c r="N9">
-        <v>49.482176</v>
+        <v>89.27351</v>
       </c>
       <c r="O9">
-        <v>0.2840808761059341</v>
+        <v>0.4138165805255589</v>
       </c>
       <c r="P9">
-        <v>0.2840808761059341</v>
+        <v>0.4138165805255589</v>
       </c>
       <c r="Q9">
-        <v>62.92580146477511</v>
+        <v>113.5278926764178</v>
       </c>
       <c r="R9">
-        <v>566.3322131829759</v>
+        <v>1021.75103408776</v>
       </c>
       <c r="S9">
-        <v>0.009159596651052647</v>
+        <v>0.01959989501029765</v>
       </c>
       <c r="T9">
-        <v>0.009159596651052648</v>
+        <v>0.01959989501029765</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>4.441711333333334</v>
+        <v>4.651706333333334</v>
       </c>
       <c r="H10">
-        <v>13.325134</v>
+        <v>13.955119</v>
       </c>
       <c r="I10">
-        <v>0.03753906580158222</v>
+        <v>0.05775065655894644</v>
       </c>
       <c r="J10">
-        <v>0.03753906580158222</v>
+        <v>0.05775065655894644</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.001642333333333</v>
+        <v>0.5373756666666667</v>
       </c>
       <c r="N10">
-        <v>9.004926999999999</v>
+        <v>1.612127</v>
       </c>
       <c r="O10">
-        <v>0.0516979599165158</v>
+        <v>0.007472820128982582</v>
       </c>
       <c r="P10">
-        <v>0.05169795991651582</v>
+        <v>0.007472820128982581</v>
       </c>
       <c r="Q10">
-        <v>13.33242877057978</v>
+        <v>2.499713792012556</v>
       </c>
       <c r="R10">
-        <v>119.991858935218</v>
+        <v>22.497424128113</v>
       </c>
       <c r="S10">
-        <v>0.001940693119113647</v>
+        <v>0.0004315602687956549</v>
       </c>
       <c r="T10">
-        <v>0.001940693119113647</v>
+        <v>0.0004315602687956549</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>4.441711333333334</v>
+        <v>4.651706333333334</v>
       </c>
       <c r="H11">
-        <v>13.325134</v>
+        <v>13.955119</v>
       </c>
       <c r="I11">
-        <v>0.03753906580158222</v>
+        <v>0.05775065655894644</v>
       </c>
       <c r="J11">
-        <v>0.03753906580158222</v>
+        <v>0.05775065655894644</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>33.162845</v>
       </c>
       <c r="O11">
-        <v>0.1903903753498087</v>
+        <v>0.1537223653287423</v>
       </c>
       <c r="P11">
-        <v>0.1903903753498088</v>
+        <v>0.1537223653287423</v>
       </c>
       <c r="Q11">
-        <v>49.09992816069224</v>
+        <v>51.42127203928391</v>
       </c>
       <c r="R11">
-        <v>441.8993534462301</v>
+        <v>462.7914483535551</v>
       </c>
       <c r="S11">
-        <v>0.007147076828244408</v>
+        <v>0.008877567525529095</v>
       </c>
       <c r="T11">
-        <v>0.007147076828244409</v>
+        <v>0.008877567525529094</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>4.441711333333334</v>
+        <v>4.651706333333334</v>
       </c>
       <c r="H12">
-        <v>13.325134</v>
+        <v>13.955119</v>
       </c>
       <c r="I12">
-        <v>0.03753906580158222</v>
+        <v>0.05775065655894644</v>
       </c>
       <c r="J12">
-        <v>0.03753906580158222</v>
+        <v>0.05775065655894644</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>27.51115433333333</v>
+        <v>30.561198</v>
       </c>
       <c r="N12">
-        <v>82.533463</v>
+        <v>91.683594</v>
       </c>
       <c r="O12">
-        <v>0.4738307886277414</v>
+        <v>0.4249882340167162</v>
       </c>
       <c r="P12">
-        <v>0.4738307886277414</v>
+        <v>0.4249882340167161</v>
       </c>
       <c r="Q12">
-        <v>122.1966059954491</v>
+        <v>142.161718290854</v>
       </c>
       <c r="R12">
-        <v>1099.769453959042</v>
+        <v>1279.455464617686</v>
       </c>
       <c r="S12">
-        <v>0.01778716515311238</v>
+        <v>0.02454334954429254</v>
       </c>
       <c r="T12">
-        <v>0.01778716515311238</v>
+        <v>0.02454334954429253</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>4.441711333333334</v>
+        <v>4.651706333333334</v>
       </c>
       <c r="H13">
-        <v>13.325134</v>
+        <v>13.955119</v>
       </c>
       <c r="I13">
-        <v>0.03753906580158222</v>
+        <v>0.05775065655894644</v>
       </c>
       <c r="J13">
-        <v>0.03753906580158222</v>
+        <v>0.05775065655894644</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>16.49405866666666</v>
+        <v>29.75783666666667</v>
       </c>
       <c r="N13">
-        <v>49.482176</v>
+        <v>89.27351</v>
       </c>
       <c r="O13">
-        <v>0.2840808761059341</v>
+        <v>0.4138165805255589</v>
       </c>
       <c r="P13">
-        <v>0.2840808761059341</v>
+        <v>0.4138165805255589</v>
       </c>
       <c r="Q13">
-        <v>73.26184731239822</v>
+        <v>138.4247172886323</v>
       </c>
       <c r="R13">
-        <v>659.3566258115841</v>
+        <v>1245.82245559769</v>
       </c>
       <c r="S13">
-        <v>0.01066413070111179</v>
+        <v>0.02389817922032916</v>
       </c>
       <c r="T13">
-        <v>0.01066413070111179</v>
+        <v>0.02389817922032916</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>30.45313966666667</v>
+        <v>26.182385</v>
       </c>
       <c r="H14">
-        <v>91.359419</v>
+        <v>78.547155</v>
       </c>
       <c r="I14">
-        <v>0.2573743154429307</v>
+        <v>0.325052747460436</v>
       </c>
       <c r="J14">
-        <v>0.2573743154429307</v>
+        <v>0.325052747460436</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>3.001642333333333</v>
+        <v>0.5373756666666667</v>
       </c>
       <c r="N14">
-        <v>9.004926999999999</v>
+        <v>1.612127</v>
       </c>
       <c r="O14">
-        <v>0.0516979599165158</v>
+        <v>0.007472820128982582</v>
       </c>
       <c r="P14">
-        <v>0.05169795991651582</v>
+        <v>0.007472820128982581</v>
       </c>
       <c r="Q14">
-        <v>91.40943320637922</v>
+        <v>14.06977659429833</v>
       </c>
       <c r="R14">
-        <v>822.6848988574129</v>
+        <v>126.627989348685</v>
       </c>
       <c r="S14">
-        <v>0.01330572704330932</v>
+        <v>0.002429060714203438</v>
       </c>
       <c r="T14">
-        <v>0.01330572704330933</v>
+        <v>0.002429060714203438</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>30.45313966666667</v>
+        <v>26.182385</v>
       </c>
       <c r="H15">
-        <v>91.359419</v>
+        <v>78.547155</v>
       </c>
       <c r="I15">
-        <v>0.2573743154429307</v>
+        <v>0.325052747460436</v>
       </c>
       <c r="J15">
-        <v>0.2573743154429307</v>
+        <v>0.325052747460436</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>33.162845</v>
       </c>
       <c r="O15">
-        <v>0.1903903753498087</v>
+        <v>0.1537223653287423</v>
       </c>
       <c r="P15">
-        <v>0.1903903753498088</v>
+        <v>0.1537223653287423</v>
       </c>
       <c r="Q15">
-        <v>336.6375835096728</v>
+        <v>289.4274584951084</v>
       </c>
       <c r="R15">
-        <v>3029.738251587055</v>
+        <v>2604.847126455975</v>
       </c>
       <c r="S15">
-        <v>0.04900159252257964</v>
+        <v>0.04996787719622457</v>
       </c>
       <c r="T15">
-        <v>0.04900159252257965</v>
+        <v>0.04996787719622456</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>30.45313966666667</v>
+        <v>26.182385</v>
       </c>
       <c r="H16">
-        <v>91.359419</v>
+        <v>78.547155</v>
       </c>
       <c r="I16">
-        <v>0.2573743154429307</v>
+        <v>0.325052747460436</v>
       </c>
       <c r="J16">
-        <v>0.2573743154429307</v>
+        <v>0.325052747460436</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>27.51115433333333</v>
+        <v>30.561198</v>
       </c>
       <c r="N16">
-        <v>82.533463</v>
+        <v>91.683594</v>
       </c>
       <c r="O16">
-        <v>0.4738307886277414</v>
+        <v>0.4249882340167162</v>
       </c>
       <c r="P16">
-        <v>0.4738307886277414</v>
+        <v>0.4249882340167161</v>
       </c>
       <c r="Q16">
-        <v>837.801025304222</v>
+        <v>800.16505209723</v>
       </c>
       <c r="R16">
-        <v>7540.209227737997</v>
+        <v>7201.48546887507</v>
       </c>
       <c r="S16">
-        <v>0.1219518748588489</v>
+        <v>0.1381435931054923</v>
       </c>
       <c r="T16">
-        <v>0.1219518748588489</v>
+        <v>0.1381435931054923</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>30.45313966666667</v>
+        <v>26.182385</v>
       </c>
       <c r="H17">
-        <v>91.359419</v>
+        <v>78.547155</v>
       </c>
       <c r="I17">
-        <v>0.2573743154429307</v>
+        <v>0.325052747460436</v>
       </c>
       <c r="J17">
-        <v>0.2573743154429307</v>
+        <v>0.325052747460436</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>16.49405866666666</v>
+        <v>29.75783666666667</v>
       </c>
       <c r="N17">
-        <v>49.482176</v>
+        <v>89.27351</v>
       </c>
       <c r="O17">
-        <v>0.2840808761059341</v>
+        <v>0.4138165805255589</v>
       </c>
       <c r="P17">
-        <v>0.2840808761059341</v>
+        <v>0.4138165805255589</v>
       </c>
       <c r="Q17">
-        <v>502.2958722461937</v>
+        <v>779.1311363737833</v>
       </c>
       <c r="R17">
-        <v>4520.662850215744</v>
+        <v>7012.180227364051</v>
       </c>
       <c r="S17">
-        <v>0.07311512101819279</v>
+        <v>0.1345122164445157</v>
       </c>
       <c r="T17">
-        <v>0.0731151210181928</v>
+        <v>0.1345122164445157</v>
       </c>
     </row>
   </sheetData>
